--- a/Data/SD_XLSX.xlsx
+++ b/Data/SD_XLSX.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trevor Drees\Desktop\Creosote Seed Drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trevor Drees\Documents\GitHub\LTEncroachment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FFF518-71AD-434A-A7DB-1E7322A77B95}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FBE87E-40AE-46EC-AEE7-5703489B0A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18336" windowHeight="6108" activeTab="1" xr2:uid="{3964EE63-103A-4009-A8AC-97EE6C819499}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="2" xr2:uid="{3964EE63-103A-4009-A8AC-97EE6C819499}"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Trials" sheetId="45" r:id="rId2"/>
     <sheet name="Metadata" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -345,10 +348,10 @@
     <t>T62.y</t>
   </si>
   <si>
-    <t>"Overview"</t>
+    <t>"Trials"</t>
   </si>
   <si>
-    <t>"Trials"</t>
+    <t>"Summary"</t>
   </si>
 </sst>
 </file>
@@ -848,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0D8B8E-5B3F-4058-BB60-E6566545F2D7}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
@@ -1924,7 +1927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318B7C62-6EB3-4BD3-B0E0-5DEBD2FFB265}">
   <dimension ref="A1:AZ242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="BA38" sqref="BA38"/>
     </sheetView>
   </sheetViews>
@@ -24327,8 +24330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96494DC5-4BF9-4704-A498-1934B03DF23E}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24338,7 +24341,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="15"/>
     </row>
@@ -24392,7 +24395,7 @@
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="15"/>
     </row>
